--- a/Results/Univariate Freq.xlsx
+++ b/Results/Univariate Freq.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbala\Documents\github\SPA\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C196C6-B9DE-412D-80A8-0922CB4603BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE73D6F8-C00E-4C6C-A40F-75E0CB3B69E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6D4C8D5A-2E80-44F0-A1C7-04255FAA436D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>What is your age?</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>UNIVARIATE FREQUENCY TABLES</t>
+  </si>
+  <si>
+    <t>Comunnication in Statistics : case studies, data analysis and aplications</t>
   </si>
 </sst>
 </file>
@@ -340,58 +343,58 @@
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -733,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF236DD-659E-4A86-9E9C-22F62B7F3013}">
-  <dimension ref="B1:H20"/>
+  <dimension ref="B1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -750,178 +753,178 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="3"/>
-      <c r="C3" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="18" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="15" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>7</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>11</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>18</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>35</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>12</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>7</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13" t="s">
+      <c r="G7" s="9"/>
+      <c r="H7" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="G8" s="14">
+      <c r="E8" s="17"/>
+      <c r="G8" s="11">
         <v>19</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="12">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="6"/>
-      <c r="C9" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="14">
+      <c r="B9" s="4"/>
+      <c r="C9" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="11">
         <v>20</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="12">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="5">
         <v>31</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>13</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="11">
         <v>21</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="12">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="5">
         <v>16</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <v>6</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="11">
         <v>22</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="12">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="9">
-        <v>1</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>14</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="11">
         <v>23</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="12">
         <v>8</v>
       </c>
     </row>
@@ -930,121 +933,126 @@
         <v>20</v>
       </c>
       <c r="C13" s="20"/>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>10</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="11">
         <v>24</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="3">
         <v>5</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="11">
         <v>25</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="G15" s="14">
+      <c r="E15" s="17"/>
+      <c r="G15" s="11">
         <v>26</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="6"/>
-      <c r="C16" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="16">
+      <c r="B16" s="4"/>
+      <c r="C16" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="13">
         <v>29</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <v>12</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <v>30</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="2">
         <v>5</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="2">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="5">
-        <v>1</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="3">
         <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
